--- a/data/news_and_keyword/kosdaq/KD.xlsx
+++ b/data/news_and_keyword/kosdaq/KD.xlsx
@@ -1279,12 +1279,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>건설, 상장적격성 심사대상 제외에 급등</t>
+          <t>건설, 상장 적격성 심사 제외 소식에 급등</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['건설', '상장적격성', '심사대상', '제외에', '급등']</t>
+          <t>['건설', '상장', '적격성', '심사', '제외']</t>
         </is>
       </c>
       <c r="D33" t="n">
